--- a/data/sp3.xlsx
+++ b/data/sp3.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernando/code/cifo/cifo_project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39DCD359-521B-084E-A548-C18D77AEC5AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4CE597-E539-7849-BAA8-8C4DDC230D75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{395CA2AF-B133-7048-8347-62BEED6B5EB7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{395CA2AF-B133-7048-8347-62BEED6B5EB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,12 +32,173 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+  <si>
+    <t>Nov. 29, 2019</t>
+  </si>
+  <si>
+    <t>Nov. 27, 2019</t>
+  </si>
+  <si>
+    <t>Nov. 26, 2019</t>
+  </si>
+  <si>
+    <t>Nov. 25, 2019</t>
+  </si>
+  <si>
+    <t>Nov. 22, 2019</t>
+  </si>
+  <si>
+    <t>Nov. 21, 2019</t>
+  </si>
+  <si>
+    <t>Nov. 20, 2019</t>
+  </si>
+  <si>
+    <t>Nov. 19, 2019</t>
+  </si>
+  <si>
+    <t>Nov. 18, 2019</t>
+  </si>
+  <si>
+    <t>Nov. 15, 2019</t>
+  </si>
+  <si>
+    <t>Nov. 14, 2019</t>
+  </si>
+  <si>
+    <t>Nov. 13, 2019</t>
+  </si>
+  <si>
+    <t>Nov. 12, 2019</t>
+  </si>
+  <si>
+    <t>Nov. 8, 2019</t>
+  </si>
+  <si>
+    <t>Nov. 7, 2019</t>
+  </si>
+  <si>
+    <t>Nov. 6, 2019</t>
+  </si>
+  <si>
+    <t>Nov. 5, 2019</t>
+  </si>
+  <si>
+    <t>Nov. 4, 2019</t>
+  </si>
+  <si>
+    <t>Nov. 1, 2019</t>
+  </si>
+  <si>
+    <t>Oct. 31, 2019</t>
+  </si>
+  <si>
+    <t>Oct. 30, 2019</t>
+  </si>
+  <si>
+    <t>Oct. 29, 2019</t>
+  </si>
+  <si>
+    <t>Oct. 28, 2019</t>
+  </si>
+  <si>
+    <t>Oct. 25, 2019</t>
+  </si>
+  <si>
+    <t>Oct. 24, 2019</t>
+  </si>
+  <si>
+    <t>Oct. 23, 2019</t>
+  </si>
+  <si>
+    <t>Oct. 22, 2019</t>
+  </si>
+  <si>
+    <t>Oct. 21, 2019</t>
+  </si>
+  <si>
+    <t>Oct. 18, 2019</t>
+  </si>
+  <si>
+    <t>Oct. 17, 2019</t>
+  </si>
+  <si>
+    <t>Oct. 16, 2019</t>
+  </si>
+  <si>
+    <t>Oct. 15, 2019</t>
+  </si>
+  <si>
+    <t>Oct. 11, 2019</t>
+  </si>
+  <si>
+    <t>Oct. 10, 2019</t>
+  </si>
+  <si>
+    <t>Oct. 9, 2019</t>
+  </si>
+  <si>
+    <t>Oct. 8, 2019</t>
+  </si>
+  <si>
+    <t>Oct. 7, 2019</t>
+  </si>
+  <si>
+    <t>Oct. 4, 2019</t>
+  </si>
+  <si>
+    <t>Oct. 3, 2019</t>
+  </si>
+  <si>
+    <t>Oct. 2, 2019</t>
+  </si>
+  <si>
+    <t>Oct. 1, 2019</t>
+  </si>
+  <si>
+    <t>Sept. 30, 2019</t>
+  </si>
+  <si>
+    <t>Sept. 27, 2019</t>
+  </si>
+  <si>
+    <t>Sept. 26, 2019</t>
+  </si>
+  <si>
+    <t>Sept. 25, 2019</t>
+  </si>
+  <si>
+    <t>Sept. 24, 2019</t>
+  </si>
+  <si>
+    <t>Sept. 23, 2019</t>
+  </si>
+  <si>
+    <t>Sept. 20, 2019</t>
+  </si>
+  <si>
+    <t>Sept. 19, 2019</t>
+  </si>
+  <si>
+    <t>Sept. 18, 2019</t>
+  </si>
+  <si>
+    <t>Generation</t>
+  </si>
+  <si>
+    <t>Fitness</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -57,6 +220,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,13 +249,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -103,6 +277,1110 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Generation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF03-9840-8461-CCA09F711D1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fitness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>307</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BF03-9840-8461-CCA09F711D1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fitness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$2:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>293</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BF03-9840-8461-CCA09F711D1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="409323392"/>
+        <c:axId val="408684096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="409323392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="408684096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="408684096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="409323392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -227,6 +1505,47 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>489857</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>111578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>60778</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E41B856B-9208-174E-BCF7-7CF5A155FAF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -531,7 +1850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61790AAB-74B5-EB40-8033-33A8153BAAA8}">
   <dimension ref="D11:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
@@ -624,4 +1943,691 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3987886C-6620-4646-A092-8F2EEEAE05B4}">
+  <dimension ref="A1:B50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7">
+        <v>1.5599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1.5699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1.5800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1.55E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1.55E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1.54E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1.54E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1.54E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1.54E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1.54E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1.54E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1.5599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1.52E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1.5299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1.5299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1.5299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1.49E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1.5100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1.6199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1.6299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7">
+        <v>1.6400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7">
+        <v>1.6199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7">
+        <v>1.6199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7">
+        <v>1.6400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7">
+        <v>1.6299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7">
+        <v>1.6299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7">
+        <v>1.6299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7">
+        <v>1.6400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7">
+        <v>1.6500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7">
+        <v>1.6500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7">
+        <v>1.66E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7">
+        <v>1.7100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7">
+        <v>1.67E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7">
+        <v>1.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7">
+        <v>1.78E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7">
+        <v>1.84E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7">
+        <v>1.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7">
+        <v>1.7899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7">
+        <v>1.8499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7">
+        <v>1.8800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7">
+        <v>1.8700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7">
+        <v>1.89E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7">
+        <v>1.9099999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9F276C-A123-874F-AA6D-0EEF35BCAA32}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f ca="1">B2+RANDBETWEEN(1,20)</f>
+        <v>105</v>
+      </c>
+      <c r="C3">
+        <f ca="1">C2+RANDBETWEEN(1,20)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:C20" ca="1" si="0">B3+RANDBETWEEN(1,20)</f>
+        <v>124</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>151</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>182</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>201</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>217</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>242</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>266</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>285</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="0"/>
+        <v>297</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="0"/>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="0"/>
+        <v>299</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="0"/>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="0"/>
+        <v>302</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="0"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="0"/>
+        <v>307</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="0"/>
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>